--- a/finalManualTestLuma.xlsx
+++ b/finalManualTestLuma.xlsx
@@ -4783,6 +4783,66 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4794,21 +4854,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4837,64 +4882,19 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5189,8 +5189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:P218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I2"/>
+    <sheetView tabSelected="1" topLeftCell="E17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5209,24 +5209,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="79" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="116"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="77" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
     </row>
     <row r="3" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="99" t="s">
         <v>249</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="4:16" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -5240,51 +5240,51 @@
       <c r="D5" s="6" t="s">
         <v>1072</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="101" t="s">
         <v>1071</v>
       </c>
-      <c r="F5" s="82"/>
+      <c r="F5" s="102"/>
       <c r="G5" s="7" t="s">
         <v>1069</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="99" t="s">
         <v>1070</v>
       </c>
-      <c r="I5" s="79"/>
+      <c r="I5" s="99"/>
       <c r="J5" s="73"/>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D6" s="8" t="s">
         <v>1073</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="112" t="s">
         <v>1074</v>
       </c>
-      <c r="F6" s="84"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="78">
         <v>1147332730</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="98" t="s">
         <v>1080</v>
       </c>
-      <c r="I6" s="79"/>
+      <c r="I6" s="99"/>
       <c r="J6" s="73"/>
     </row>
     <row r="7" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="112" t="s">
         <v>1075</v>
       </c>
-      <c r="F7" s="84"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="78">
         <v>1006993548</v>
       </c>
-      <c r="H7" s="86" t="s">
+      <c r="H7" s="98" t="s">
         <v>1081</v>
       </c>
-      <c r="I7" s="79"/>
+      <c r="I7" s="99"/>
       <c r="J7" s="72"/>
       <c r="K7" s="72"/>
       <c r="L7" s="74"/>
@@ -5293,17 +5293,17 @@
       <c r="D8" s="8">
         <v>3.6</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="101" t="s">
         <v>1076</v>
       </c>
-      <c r="F8" s="82"/>
+      <c r="F8" s="102"/>
       <c r="G8" s="78">
         <v>1033145139</v>
       </c>
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="98" t="s">
         <v>1082</v>
       </c>
-      <c r="I8" s="79"/>
+      <c r="I8" s="99"/>
       <c r="J8" s="72"/>
       <c r="K8" s="72"/>
       <c r="L8" s="74"/>
@@ -5312,17 +5312,17 @@
       <c r="D9" s="8">
         <v>4</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="101" t="s">
         <v>1077</v>
       </c>
-      <c r="F9" s="82"/>
+      <c r="F9" s="102"/>
       <c r="G9" s="78">
         <v>1115583175</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="98" t="s">
         <v>1083</v>
       </c>
-      <c r="I9" s="79"/>
+      <c r="I9" s="99"/>
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
       <c r="L9" s="74"/>
@@ -5331,17 +5331,17 @@
       <c r="D10" s="8">
         <v>7</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="101" t="s">
         <v>1078</v>
       </c>
-      <c r="F10" s="82"/>
+      <c r="F10" s="102"/>
       <c r="G10" s="78">
         <v>1280509977</v>
       </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="98" t="s">
         <v>1084</v>
       </c>
-      <c r="I10" s="79"/>
+      <c r="I10" s="99"/>
       <c r="J10" s="72"/>
       <c r="K10" s="72"/>
       <c r="L10" s="74"/>
@@ -5350,17 +5350,17 @@
       <c r="D11" s="8">
         <v>8</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="101" t="s">
         <v>1079</v>
       </c>
-      <c r="F11" s="82"/>
+      <c r="F11" s="102"/>
       <c r="G11" s="78">
         <v>1029907273</v>
       </c>
-      <c r="H11" s="86" t="s">
+      <c r="H11" s="98" t="s">
         <v>1085</v>
       </c>
-      <c r="I11" s="79"/>
+      <c r="I11" s="99"/>
       <c r="J11" s="72"/>
       <c r="K11" s="72"/>
       <c r="L11" s="74"/>
@@ -5376,10 +5376,10 @@
       <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="89"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="2" t="s">
         <v>1</v>
       </c>
@@ -5409,10 +5409,10 @@
       <c r="D15" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E15" s="93" t="s">
+      <c r="E15" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="90" t="s">
+      <c r="F15" s="105" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="9" t="s">
@@ -5444,8 +5444,8 @@
       <c r="D16" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="91"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="106"/>
       <c r="G16" s="9" t="s">
         <v>10</v>
       </c>
@@ -5475,8 +5475,8 @@
       <c r="D17" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="91"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="106"/>
       <c r="G17" s="9" t="s">
         <v>11</v>
       </c>
@@ -5506,8 +5506,8 @@
       <c r="D18" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E18" s="94"/>
-      <c r="F18" s="91"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="106"/>
       <c r="G18" s="9" t="s">
         <v>15</v>
       </c>
@@ -5534,8 +5534,8 @@
       <c r="D19" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="91"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="106"/>
       <c r="G19" s="9" t="s">
         <v>16</v>
       </c>
@@ -5562,8 +5562,8 @@
       <c r="D20" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="91"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="106"/>
       <c r="G20" s="9" t="s">
         <v>17</v>
       </c>
@@ -5590,8 +5590,8 @@
       <c r="D21" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E21" s="94"/>
-      <c r="F21" s="91"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="106"/>
       <c r="G21" s="9" t="s">
         <v>18</v>
       </c>
@@ -5618,8 +5618,8 @@
       <c r="D22" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E22" s="94"/>
-      <c r="F22" s="91"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="106"/>
       <c r="G22" s="9" t="s">
         <v>20</v>
       </c>
@@ -5646,8 +5646,8 @@
       <c r="D23" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E23" s="94"/>
-      <c r="F23" s="91"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="106"/>
       <c r="G23" s="9" t="s">
         <v>21</v>
       </c>
@@ -5674,8 +5674,8 @@
       <c r="D24" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E24" s="94"/>
-      <c r="F24" s="91"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="106"/>
       <c r="G24" s="9" t="s">
         <v>22</v>
       </c>
@@ -5702,8 +5702,8 @@
       <c r="D25" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E25" s="94"/>
-      <c r="F25" s="91"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="106"/>
       <c r="G25" s="9" t="s">
         <v>23</v>
       </c>
@@ -5730,8 +5730,8 @@
       <c r="D26" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E26" s="94"/>
-      <c r="F26" s="91"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="106"/>
       <c r="G26" s="9" t="s">
         <v>19</v>
       </c>
@@ -5758,8 +5758,8 @@
       <c r="D27" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E27" s="94"/>
-      <c r="F27" s="91"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="106"/>
       <c r="G27" s="9" t="s">
         <v>28</v>
       </c>
@@ -5786,8 +5786,8 @@
       <c r="D28" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E28" s="94"/>
-      <c r="F28" s="91"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="106"/>
       <c r="G28" s="9" t="s">
         <v>90</v>
       </c>
@@ -5814,8 +5814,8 @@
       <c r="D29" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E29" s="94"/>
-      <c r="F29" s="91"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="106"/>
       <c r="G29" s="9" t="s">
         <v>33</v>
       </c>
@@ -5842,8 +5842,8 @@
       <c r="D30" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E30" s="94"/>
-      <c r="F30" s="91"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="106"/>
       <c r="G30" s="9" t="s">
         <v>34</v>
       </c>
@@ -5870,8 +5870,8 @@
       <c r="D31" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E31" s="94"/>
-      <c r="F31" s="91"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="106"/>
       <c r="G31" s="9" t="s">
         <v>35</v>
       </c>
@@ -5898,8 +5898,8 @@
       <c r="D32" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E32" s="94"/>
-      <c r="F32" s="91"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="106"/>
       <c r="G32" s="9" t="s">
         <v>36</v>
       </c>
@@ -5926,8 +5926,8 @@
       <c r="D33" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E33" s="94"/>
-      <c r="F33" s="91"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="106"/>
       <c r="G33" s="9" t="s">
         <v>24</v>
       </c>
@@ -5954,8 +5954,8 @@
       <c r="D34" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E34" s="94"/>
-      <c r="F34" s="91"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="106"/>
       <c r="G34" s="9" t="s">
         <v>25</v>
       </c>
@@ -5982,8 +5982,8 @@
       <c r="D35" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E35" s="94"/>
-      <c r="F35" s="91"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="106"/>
       <c r="G35" s="9" t="s">
         <v>26</v>
       </c>
@@ -6010,8 +6010,8 @@
       <c r="D36" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E36" s="94"/>
-      <c r="F36" s="91"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="106"/>
       <c r="G36" s="9" t="s">
         <v>116</v>
       </c>
@@ -6038,8 +6038,8 @@
       <c r="D37" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E37" s="94"/>
-      <c r="F37" s="91"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="106"/>
       <c r="G37" s="9" t="s">
         <v>117</v>
       </c>
@@ -6066,8 +6066,8 @@
       <c r="D38" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E38" s="94"/>
-      <c r="F38" s="91"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="106"/>
       <c r="G38" s="9" t="s">
         <v>122</v>
       </c>
@@ -6094,8 +6094,8 @@
       <c r="D39" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E39" s="94"/>
-      <c r="F39" s="91"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="106"/>
       <c r="G39" s="9" t="s">
         <v>118</v>
       </c>
@@ -6122,8 +6122,8 @@
       <c r="D40" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E40" s="94"/>
-      <c r="F40" s="91"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="106"/>
       <c r="G40" s="9" t="s">
         <v>128</v>
       </c>
@@ -6150,8 +6150,8 @@
       <c r="D41" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E41" s="94"/>
-      <c r="F41" s="91"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="106"/>
       <c r="G41" s="9" t="s">
         <v>132</v>
       </c>
@@ -6178,8 +6178,8 @@
       <c r="D42" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E42" s="94"/>
-      <c r="F42" s="91"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="106"/>
       <c r="G42" s="9" t="s">
         <v>27</v>
       </c>
@@ -6204,8 +6204,8 @@
       <c r="D43" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E43" s="94"/>
-      <c r="F43" s="91"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="106"/>
       <c r="G43" s="9" t="s">
         <v>29</v>
       </c>
@@ -6232,8 +6232,8 @@
       <c r="D44" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E44" s="94"/>
-      <c r="F44" s="91"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="106"/>
       <c r="G44" s="9" t="s">
         <v>150</v>
       </c>
@@ -6260,8 +6260,8 @@
       <c r="D45" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E45" s="94"/>
-      <c r="F45" s="91"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="106"/>
       <c r="G45" s="9" t="s">
         <v>30</v>
       </c>
@@ -6288,8 +6288,8 @@
       <c r="D46" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E46" s="94"/>
-      <c r="F46" s="91"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="106"/>
       <c r="G46" s="9" t="s">
         <v>45</v>
       </c>
@@ -6314,8 +6314,8 @@
       <c r="D47" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E47" s="94"/>
-      <c r="F47" s="91"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="106"/>
       <c r="G47" s="9" t="s">
         <v>46</v>
       </c>
@@ -6334,16 +6334,16 @@
       <c r="L47" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="M47" s="4" t="s">
-        <v>141</v>
+      <c r="M47" s="3" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="48" spans="4:13" ht="345" x14ac:dyDescent="0.25">
       <c r="D48" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E48" s="94"/>
-      <c r="F48" s="91"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="106"/>
       <c r="G48" s="14" t="s">
         <v>47</v>
       </c>
@@ -6370,8 +6370,8 @@
       <c r="D49" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E49" s="94"/>
-      <c r="F49" s="91"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="106"/>
       <c r="G49" s="9" t="s">
         <v>31</v>
       </c>
@@ -6398,8 +6398,8 @@
       <c r="D50" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E50" s="94"/>
-      <c r="F50" s="91"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="106"/>
       <c r="G50" s="9" t="s">
         <v>32</v>
       </c>
@@ -6426,8 +6426,8 @@
       <c r="D51" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E51" s="94"/>
-      <c r="F51" s="91"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="106"/>
       <c r="G51" s="9" t="s">
         <v>37</v>
       </c>
@@ -6454,8 +6454,8 @@
       <c r="D52" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E52" s="94"/>
-      <c r="F52" s="91"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="106"/>
       <c r="G52" s="9" t="s">
         <v>38</v>
       </c>
@@ -6482,8 +6482,8 @@
       <c r="D53" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E53" s="94"/>
-      <c r="F53" s="91"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="106"/>
       <c r="G53" s="9" t="s">
         <v>39</v>
       </c>
@@ -6510,8 +6510,8 @@
       <c r="D54" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E54" s="94"/>
-      <c r="F54" s="91"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="106"/>
       <c r="G54" s="9" t="s">
         <v>40</v>
       </c>
@@ -6538,8 +6538,8 @@
       <c r="D55" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E55" s="94"/>
-      <c r="F55" s="91"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="106"/>
       <c r="G55" s="9" t="s">
         <v>41</v>
       </c>
@@ -6566,8 +6566,8 @@
       <c r="D56" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E56" s="94"/>
-      <c r="F56" s="91"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="106"/>
       <c r="G56" s="9" t="s">
         <v>148</v>
       </c>
@@ -6594,8 +6594,8 @@
       <c r="D57" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E57" s="94"/>
-      <c r="F57" s="91"/>
+      <c r="E57" s="109"/>
+      <c r="F57" s="106"/>
       <c r="G57" s="9" t="s">
         <v>149</v>
       </c>
@@ -6622,8 +6622,8 @@
       <c r="D58" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E58" s="94"/>
-      <c r="F58" s="91"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="106"/>
       <c r="G58" s="9" t="s">
         <v>42</v>
       </c>
@@ -6650,8 +6650,8 @@
       <c r="D59" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E59" s="94"/>
-      <c r="F59" s="91"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="106"/>
       <c r="G59" s="9" t="s">
         <v>43</v>
       </c>
@@ -6678,8 +6678,8 @@
       <c r="D60" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E60" s="95"/>
-      <c r="F60" s="92"/>
+      <c r="E60" s="110"/>
+      <c r="F60" s="107"/>
       <c r="G60" s="10" t="s">
         <v>44</v>
       </c>
@@ -6718,10 +6718,10 @@
       <c r="D62" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="E62" s="97" t="s">
+      <c r="E62" s="92" t="s">
         <v>250</v>
       </c>
-      <c r="F62" s="97"/>
+      <c r="F62" s="92"/>
       <c r="G62" s="24" t="s">
         <v>262</v>
       </c>
@@ -6748,10 +6748,10 @@
       <c r="D63" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="E63" s="97" t="s">
+      <c r="E63" s="92" t="s">
         <v>251</v>
       </c>
-      <c r="F63" s="97"/>
+      <c r="F63" s="92"/>
       <c r="G63" s="24" t="s">
         <v>263</v>
       </c>
@@ -6778,10 +6778,10 @@
       <c r="D64" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E64" s="97" t="s">
+      <c r="E64" s="92" t="s">
         <v>252</v>
       </c>
-      <c r="F64" s="97"/>
+      <c r="F64" s="92"/>
       <c r="G64" s="24" t="s">
         <v>264</v>
       </c>
@@ -6808,10 +6808,10 @@
       <c r="D65" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="E65" s="97" t="s">
+      <c r="E65" s="92" t="s">
         <v>253</v>
       </c>
-      <c r="F65" s="97"/>
+      <c r="F65" s="92"/>
       <c r="G65" s="24" t="s">
         <v>265</v>
       </c>
@@ -6838,10 +6838,10 @@
       <c r="D66" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="E66" s="97" t="s">
+      <c r="E66" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="F66" s="97"/>
+      <c r="F66" s="92"/>
       <c r="G66" s="24" t="s">
         <v>266</v>
       </c>
@@ -6868,10 +6868,10 @@
       <c r="D67" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="E67" s="98" t="s">
+      <c r="E67" s="115" t="s">
         <v>255</v>
       </c>
-      <c r="F67" s="99"/>
+      <c r="F67" s="116"/>
       <c r="G67" s="24" t="s">
         <v>267</v>
       </c>
@@ -6898,10 +6898,10 @@
       <c r="D68" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="E68" s="97" t="s">
+      <c r="E68" s="92" t="s">
         <v>256</v>
       </c>
-      <c r="F68" s="97"/>
+      <c r="F68" s="92"/>
       <c r="G68" s="24" t="s">
         <v>268</v>
       </c>
@@ -6928,10 +6928,10 @@
       <c r="D69" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="E69" s="97" t="s">
+      <c r="E69" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="F69" s="97"/>
+      <c r="F69" s="92"/>
       <c r="G69" s="24" t="s">
         <v>269</v>
       </c>
@@ -6958,10 +6958,10 @@
       <c r="D70" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="E70" s="97" t="s">
+      <c r="E70" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="F70" s="97"/>
+      <c r="F70" s="92"/>
       <c r="G70" s="24" t="s">
         <v>270</v>
       </c>
@@ -7018,10 +7018,10 @@
       <c r="D72" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="E72" s="97" t="s">
+      <c r="E72" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="F72" s="97"/>
+      <c r="F72" s="92"/>
       <c r="G72" s="24" t="s">
         <v>272</v>
       </c>
@@ -7048,10 +7048,10 @@
       <c r="D73" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="E73" s="97" t="s">
+      <c r="E73" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="F73" s="97"/>
+      <c r="F73" s="92"/>
       <c r="G73" s="24" t="s">
         <v>273</v>
       </c>
@@ -7078,10 +7078,10 @@
       <c r="D74" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="E74" s="97" t="s">
+      <c r="E74" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="F74" s="97"/>
+      <c r="F74" s="92"/>
       <c r="G74" s="24" t="s">
         <v>274</v>
       </c>
@@ -7108,10 +7108,10 @@
       <c r="D75" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="E75" s="97" t="s">
+      <c r="E75" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="F75" s="97"/>
+      <c r="F75" s="92"/>
       <c r="G75" s="24" t="s">
         <v>275</v>
       </c>
@@ -7138,10 +7138,10 @@
       <c r="D76" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="E76" s="97" t="s">
+      <c r="E76" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="F76" s="97"/>
+      <c r="F76" s="92"/>
       <c r="G76" s="24" t="s">
         <v>276</v>
       </c>
@@ -7168,10 +7168,10 @@
       <c r="D77" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="E77" s="97" t="s">
+      <c r="E77" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="F77" s="97"/>
+      <c r="F77" s="92"/>
       <c r="G77" s="24" t="s">
         <v>277</v>
       </c>
@@ -7198,10 +7198,10 @@
       <c r="D78" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="E78" s="100" t="s">
+      <c r="E78" s="94" t="s">
         <v>327</v>
       </c>
-      <c r="F78" s="101"/>
+      <c r="F78" s="95"/>
       <c r="G78" s="25" t="s">
         <v>334</v>
       </c>
@@ -7228,10 +7228,10 @@
       <c r="D79" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="E79" s="100" t="s">
+      <c r="E79" s="94" t="s">
         <v>328</v>
       </c>
-      <c r="F79" s="101"/>
+      <c r="F79" s="95"/>
       <c r="G79" s="25" t="s">
         <v>335</v>
       </c>
@@ -7258,10 +7258,10 @@
       <c r="D80" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="E80" s="100" t="s">
+      <c r="E80" s="94" t="s">
         <v>329</v>
       </c>
-      <c r="F80" s="101"/>
+      <c r="F80" s="95"/>
       <c r="G80" s="25" t="s">
         <v>336</v>
       </c>
@@ -7288,10 +7288,10 @@
       <c r="D81" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="E81" s="100" t="s">
+      <c r="E81" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="F81" s="101"/>
+      <c r="F81" s="95"/>
       <c r="G81" s="25" t="s">
         <v>337</v>
       </c>
@@ -7318,10 +7318,10 @@
       <c r="D82" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="E82" s="100" t="s">
+      <c r="E82" s="94" t="s">
         <v>331</v>
       </c>
-      <c r="F82" s="101"/>
+      <c r="F82" s="95"/>
       <c r="G82" s="25" t="s">
         <v>338</v>
       </c>
@@ -7348,10 +7348,10 @@
       <c r="D83" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="E83" s="100" t="s">
+      <c r="E83" s="94" t="s">
         <v>332</v>
       </c>
-      <c r="F83" s="101"/>
+      <c r="F83" s="95"/>
       <c r="G83" s="25" t="s">
         <v>339</v>
       </c>
@@ -7378,10 +7378,10 @@
       <c r="D84" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="E84" s="100" t="s">
+      <c r="E84" s="94" t="s">
         <v>333</v>
       </c>
-      <c r="F84" s="101"/>
+      <c r="F84" s="95"/>
       <c r="G84" s="25" t="s">
         <v>340</v>
       </c>
@@ -7408,10 +7408,10 @@
       <c r="D85" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="E85" s="97" t="s">
+      <c r="E85" s="92" t="s">
         <v>367</v>
       </c>
-      <c r="F85" s="97"/>
+      <c r="F85" s="92"/>
       <c r="G85" s="24" t="s">
         <v>368</v>
       </c>
@@ -7436,8 +7436,8 @@
     </row>
     <row r="86" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D86" s="2"/>
-      <c r="E86" s="103"/>
-      <c r="F86" s="103"/>
+      <c r="E86" s="96"/>
+      <c r="F86" s="96"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -7450,10 +7450,10 @@
       <c r="D87" s="15" t="s">
         <v>1068</v>
       </c>
-      <c r="E87" s="102" t="s">
+      <c r="E87" s="93" t="s">
         <v>396</v>
       </c>
-      <c r="F87" s="102"/>
+      <c r="F87" s="93"/>
       <c r="G87" s="10" t="s">
         <v>397</v>
       </c>
@@ -7480,10 +7480,10 @@
       <c r="D88" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="E88" s="102" t="s">
+      <c r="E88" s="93" t="s">
         <v>398</v>
       </c>
-      <c r="F88" s="102"/>
+      <c r="F88" s="93"/>
       <c r="G88" s="10" t="s">
         <v>399</v>
       </c>
@@ -7510,10 +7510,10 @@
       <c r="D89" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="E89" s="102" t="s">
+      <c r="E89" s="93" t="s">
         <v>400</v>
       </c>
-      <c r="F89" s="102"/>
+      <c r="F89" s="93"/>
       <c r="G89" s="10" t="s">
         <v>401</v>
       </c>
@@ -7540,10 +7540,10 @@
       <c r="D90" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="E90" s="102" t="s">
+      <c r="E90" s="93" t="s">
         <v>402</v>
       </c>
-      <c r="F90" s="102"/>
+      <c r="F90" s="93"/>
       <c r="G90" s="10" t="s">
         <v>403</v>
       </c>
@@ -7570,10 +7570,10 @@
       <c r="D91" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="E91" s="102" t="s">
+      <c r="E91" s="93" t="s">
         <v>404</v>
       </c>
-      <c r="F91" s="102"/>
+      <c r="F91" s="93"/>
       <c r="G91" s="10" t="s">
         <v>405</v>
       </c>
@@ -7600,10 +7600,10 @@
       <c r="D92" s="15" t="s">
         <v>484</v>
       </c>
-      <c r="E92" s="102" t="s">
+      <c r="E92" s="93" t="s">
         <v>406</v>
       </c>
-      <c r="F92" s="102"/>
+      <c r="F92" s="93"/>
       <c r="G92" s="10" t="s">
         <v>407</v>
       </c>
@@ -7630,10 +7630,10 @@
       <c r="D93" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="E93" s="97" t="s">
+      <c r="E93" s="92" t="s">
         <v>424</v>
       </c>
-      <c r="F93" s="97"/>
+      <c r="F93" s="92"/>
       <c r="G93" s="11" t="s">
         <v>427</v>
       </c>
@@ -7660,10 +7660,10 @@
       <c r="D94" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="E94" s="102" t="s">
+      <c r="E94" s="93" t="s">
         <v>425</v>
       </c>
-      <c r="F94" s="102"/>
+      <c r="F94" s="93"/>
       <c r="G94" s="11" t="s">
         <v>428</v>
       </c>
@@ -7690,10 +7690,10 @@
       <c r="D95" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="E95" s="102" t="s">
+      <c r="E95" s="93" t="s">
         <v>426</v>
       </c>
-      <c r="F95" s="102"/>
+      <c r="F95" s="93"/>
       <c r="G95" s="11" t="s">
         <v>429</v>
       </c>
@@ -7720,10 +7720,10 @@
       <c r="D96" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="E96" s="97" t="s">
+      <c r="E96" s="92" t="s">
         <v>440</v>
       </c>
-      <c r="F96" s="97"/>
+      <c r="F96" s="92"/>
       <c r="G96" s="10" t="s">
         <v>443</v>
       </c>
@@ -7750,10 +7750,10 @@
       <c r="D97" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="E97" s="97" t="s">
+      <c r="E97" s="92" t="s">
         <v>441</v>
       </c>
-      <c r="F97" s="97"/>
+      <c r="F97" s="92"/>
       <c r="G97" s="10" t="s">
         <v>444</v>
       </c>
@@ -7780,10 +7780,10 @@
       <c r="D98" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="E98" s="97" t="s">
+      <c r="E98" s="92" t="s">
         <v>442</v>
       </c>
-      <c r="F98" s="97"/>
+      <c r="F98" s="92"/>
       <c r="G98" s="10" t="s">
         <v>445</v>
       </c>
@@ -7810,10 +7810,10 @@
       <c r="D99" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="E99" s="97" t="s">
+      <c r="E99" s="92" t="s">
         <v>284</v>
       </c>
-      <c r="F99" s="97"/>
+      <c r="F99" s="92"/>
       <c r="G99" s="10" t="s">
         <v>446</v>
       </c>
@@ -7840,10 +7840,10 @@
       <c r="D100" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="E100" s="97" t="s">
+      <c r="E100" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="F100" s="97"/>
+      <c r="F100" s="92"/>
       <c r="G100" s="10" t="s">
         <v>447</v>
       </c>
@@ -7870,10 +7870,10 @@
       <c r="D101" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="E101" s="97" t="s">
+      <c r="E101" s="92" t="s">
         <v>464</v>
       </c>
-      <c r="F101" s="97"/>
+      <c r="F101" s="92"/>
       <c r="G101" s="11" t="s">
         <v>467</v>
       </c>
@@ -7900,10 +7900,10 @@
       <c r="D102" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="E102" s="97" t="s">
+      <c r="E102" s="92" t="s">
         <v>465</v>
       </c>
-      <c r="F102" s="97"/>
+      <c r="F102" s="92"/>
       <c r="G102" s="11" t="s">
         <v>468</v>
       </c>
@@ -7930,10 +7930,10 @@
       <c r="D103" s="28" t="s">
         <v>495</v>
       </c>
-      <c r="E103" s="97" t="s">
+      <c r="E103" s="92" t="s">
         <v>466</v>
       </c>
-      <c r="F103" s="97"/>
+      <c r="F103" s="92"/>
       <c r="G103" s="11" t="s">
         <v>469</v>
       </c>
@@ -7972,10 +7972,10 @@
       <c r="D105" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="E105" s="105" t="s">
+      <c r="E105" s="90" t="s">
         <v>496</v>
       </c>
-      <c r="F105" s="105"/>
+      <c r="F105" s="90"/>
       <c r="G105" s="31" t="s">
         <v>508</v>
       </c>
@@ -8002,10 +8002,10 @@
       <c r="D106" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="E106" s="104" t="s">
+      <c r="E106" s="91" t="s">
         <v>497</v>
       </c>
-      <c r="F106" s="104"/>
+      <c r="F106" s="91"/>
       <c r="G106" s="32" t="s">
         <v>510</v>
       </c>
@@ -8032,10 +8032,10 @@
       <c r="D107" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="E107" s="105" t="s">
+      <c r="E107" s="90" t="s">
         <v>498</v>
       </c>
-      <c r="F107" s="105"/>
+      <c r="F107" s="90"/>
       <c r="G107" s="31" t="s">
         <v>512</v>
       </c>
@@ -8062,10 +8062,10 @@
       <c r="D108" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="E108" s="104" t="s">
+      <c r="E108" s="91" t="s">
         <v>499</v>
       </c>
-      <c r="F108" s="104"/>
+      <c r="F108" s="91"/>
       <c r="G108" s="32" t="s">
         <v>513</v>
       </c>
@@ -8092,10 +8092,10 @@
       <c r="D109" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="E109" s="105" t="s">
+      <c r="E109" s="90" t="s">
         <v>500</v>
       </c>
-      <c r="F109" s="105"/>
+      <c r="F109" s="90"/>
       <c r="G109" s="31" t="s">
         <v>514</v>
       </c>
@@ -8122,10 +8122,10 @@
       <c r="D110" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="E110" s="104" t="s">
+      <c r="E110" s="91" t="s">
         <v>501</v>
       </c>
-      <c r="F110" s="104"/>
+      <c r="F110" s="91"/>
       <c r="G110" s="32" t="s">
         <v>516</v>
       </c>
@@ -8152,10 +8152,10 @@
       <c r="D111" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="E111" s="105" t="s">
+      <c r="E111" s="90" t="s">
         <v>502</v>
       </c>
-      <c r="F111" s="105"/>
+      <c r="F111" s="90"/>
       <c r="G111" s="31" t="s">
         <v>518</v>
       </c>
@@ -8182,10 +8182,10 @@
       <c r="D112" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="E112" s="104" t="s">
+      <c r="E112" s="91" t="s">
         <v>503</v>
       </c>
-      <c r="F112" s="104"/>
+      <c r="F112" s="91"/>
       <c r="G112" s="32" t="s">
         <v>520</v>
       </c>
@@ -8212,10 +8212,10 @@
       <c r="D113" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="E113" s="105" t="s">
+      <c r="E113" s="90" t="s">
         <v>504</v>
       </c>
-      <c r="F113" s="105"/>
+      <c r="F113" s="90"/>
       <c r="G113" s="31" t="s">
         <v>521</v>
       </c>
@@ -8242,10 +8242,10 @@
       <c r="D114" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="E114" s="104" t="s">
+      <c r="E114" s="91" t="s">
         <v>505</v>
       </c>
-      <c r="F114" s="104"/>
+      <c r="F114" s="91"/>
       <c r="G114" s="32" t="s">
         <v>523</v>
       </c>
@@ -8272,10 +8272,10 @@
       <c r="D115" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="E115" s="105" t="s">
+      <c r="E115" s="90" t="s">
         <v>506</v>
       </c>
-      <c r="F115" s="105"/>
+      <c r="F115" s="90"/>
       <c r="G115" s="31" t="s">
         <v>524</v>
       </c>
@@ -8302,10 +8302,10 @@
       <c r="D116" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="E116" s="104" t="s">
+      <c r="E116" s="91" t="s">
         <v>507</v>
       </c>
-      <c r="F116" s="104"/>
+      <c r="F116" s="91"/>
       <c r="G116" s="32" t="s">
         <v>526</v>
       </c>
@@ -8344,10 +8344,10 @@
       <c r="D118" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="E118" s="110" t="s">
+      <c r="E118" s="86" t="s">
         <v>589</v>
       </c>
-      <c r="F118" s="111"/>
+      <c r="F118" s="87"/>
       <c r="G118" s="10" t="s">
         <v>576</v>
       </c>
@@ -8374,8 +8374,8 @@
       <c r="D119" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="E119" s="112"/>
-      <c r="F119" s="113"/>
+      <c r="E119" s="88"/>
+      <c r="F119" s="89"/>
       <c r="G119" s="10" t="s">
         <v>591</v>
       </c>
@@ -8402,8 +8402,8 @@
       <c r="D120" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="E120" s="112"/>
-      <c r="F120" s="113"/>
+      <c r="E120" s="88"/>
+      <c r="F120" s="89"/>
       <c r="G120" s="10" t="s">
         <v>578</v>
       </c>
@@ -8430,8 +8430,8 @@
       <c r="D121" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="E121" s="112"/>
-      <c r="F121" s="113"/>
+      <c r="E121" s="88"/>
+      <c r="F121" s="89"/>
       <c r="G121" s="10" t="s">
         <v>579</v>
       </c>
@@ -8458,8 +8458,8 @@
       <c r="D122" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="E122" s="112"/>
-      <c r="F122" s="113"/>
+      <c r="E122" s="88"/>
+      <c r="F122" s="89"/>
       <c r="G122" s="10" t="s">
         <v>580</v>
       </c>
@@ -8486,8 +8486,8 @@
       <c r="D123" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="E123" s="112"/>
-      <c r="F123" s="113"/>
+      <c r="E123" s="88"/>
+      <c r="F123" s="89"/>
       <c r="G123" s="10" t="s">
         <v>581</v>
       </c>
@@ -8514,8 +8514,8 @@
       <c r="D124" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="E124" s="112"/>
-      <c r="F124" s="113"/>
+      <c r="E124" s="88"/>
+      <c r="F124" s="89"/>
       <c r="G124" s="10" t="s">
         <v>577</v>
       </c>
@@ -8542,8 +8542,8 @@
       <c r="D125" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="E125" s="112"/>
-      <c r="F125" s="113"/>
+      <c r="E125" s="88"/>
+      <c r="F125" s="89"/>
       <c r="G125" s="10" t="s">
         <v>582</v>
       </c>
@@ -8570,8 +8570,8 @@
       <c r="D126" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="E126" s="112"/>
-      <c r="F126" s="113"/>
+      <c r="E126" s="88"/>
+      <c r="F126" s="89"/>
       <c r="G126" s="10" t="s">
         <v>583</v>
       </c>
@@ -8598,8 +8598,8 @@
       <c r="D127" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="E127" s="112"/>
-      <c r="F127" s="113"/>
+      <c r="E127" s="88"/>
+      <c r="F127" s="89"/>
       <c r="G127" s="10" t="s">
         <v>584</v>
       </c>
@@ -8626,8 +8626,8 @@
       <c r="D128" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="E128" s="112"/>
-      <c r="F128" s="113"/>
+      <c r="E128" s="88"/>
+      <c r="F128" s="89"/>
       <c r="G128" s="10" t="s">
         <v>585</v>
       </c>
@@ -8654,8 +8654,8 @@
       <c r="D129" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="E129" s="112"/>
-      <c r="F129" s="113"/>
+      <c r="E129" s="88"/>
+      <c r="F129" s="89"/>
       <c r="G129" s="10" t="s">
         <v>624</v>
       </c>
@@ -8682,8 +8682,8 @@
       <c r="D130" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="E130" s="112"/>
-      <c r="F130" s="113"/>
+      <c r="E130" s="88"/>
+      <c r="F130" s="89"/>
       <c r="G130" s="10" t="s">
         <v>586</v>
       </c>
@@ -8710,8 +8710,8 @@
       <c r="D131" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="E131" s="112"/>
-      <c r="F131" s="113"/>
+      <c r="E131" s="88"/>
+      <c r="F131" s="89"/>
       <c r="G131" s="10" t="s">
         <v>626</v>
       </c>
@@ -8738,8 +8738,8 @@
       <c r="D132" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="E132" s="112"/>
-      <c r="F132" s="113"/>
+      <c r="E132" s="88"/>
+      <c r="F132" s="89"/>
       <c r="G132" s="10" t="s">
         <v>628</v>
       </c>
@@ -8766,8 +8766,8 @@
       <c r="D133" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="E133" s="112"/>
-      <c r="F133" s="113"/>
+      <c r="E133" s="88"/>
+      <c r="F133" s="89"/>
       <c r="G133" s="10" t="s">
         <v>632</v>
       </c>
@@ -8794,8 +8794,8 @@
       <c r="D134" s="42" t="s">
         <v>685</v>
       </c>
-      <c r="E134" s="112"/>
-      <c r="F134" s="113"/>
+      <c r="E134" s="88"/>
+      <c r="F134" s="89"/>
       <c r="G134" s="38" t="s">
         <v>587</v>
       </c>
@@ -8834,10 +8834,10 @@
       <c r="D136" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="E136" s="106" t="s">
+      <c r="E136" s="82" t="s">
         <v>658</v>
       </c>
-      <c r="F136" s="107"/>
+      <c r="F136" s="83"/>
       <c r="G136" s="58" t="s">
         <v>663</v>
       </c>
@@ -8864,10 +8864,10 @@
       <c r="D137" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="E137" s="108" t="s">
+      <c r="E137" s="84" t="s">
         <v>659</v>
       </c>
-      <c r="F137" s="109"/>
+      <c r="F137" s="85"/>
       <c r="G137" s="60" t="s">
         <v>664</v>
       </c>
@@ -8894,10 +8894,10 @@
       <c r="D138" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="E138" s="106" t="s">
+      <c r="E138" s="82" t="s">
         <v>660</v>
       </c>
-      <c r="F138" s="107"/>
+      <c r="F138" s="83"/>
       <c r="G138" s="58" t="s">
         <v>665</v>
       </c>
@@ -8924,10 +8924,10 @@
       <c r="D139" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="E139" s="108" t="s">
+      <c r="E139" s="84" t="s">
         <v>661</v>
       </c>
-      <c r="F139" s="109"/>
+      <c r="F139" s="85"/>
       <c r="G139" s="60" t="s">
         <v>666</v>
       </c>
@@ -8954,10 +8954,10 @@
       <c r="D140" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="E140" s="106" t="s">
+      <c r="E140" s="82" t="s">
         <v>662</v>
       </c>
-      <c r="F140" s="107"/>
+      <c r="F140" s="83"/>
       <c r="G140" s="58" t="s">
         <v>667</v>
       </c>
@@ -8996,10 +8996,10 @@
       <c r="D142" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="E142" s="114" t="s">
+      <c r="E142" s="81" t="s">
         <v>692</v>
       </c>
-      <c r="F142" s="114"/>
+      <c r="F142" s="81"/>
       <c r="G142" s="46" t="s">
         <v>702</v>
       </c>
@@ -9027,10 +9027,10 @@
       <c r="D143" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="E143" s="114" t="s">
+      <c r="E143" s="81" t="s">
         <v>693</v>
       </c>
-      <c r="F143" s="114"/>
+      <c r="F143" s="81"/>
       <c r="G143" s="46" t="s">
         <v>703</v>
       </c>
@@ -9057,10 +9057,10 @@
       <c r="D144" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="E144" s="114" t="s">
+      <c r="E144" s="81" t="s">
         <v>694</v>
       </c>
-      <c r="F144" s="114"/>
+      <c r="F144" s="81"/>
       <c r="G144" s="46" t="s">
         <v>704</v>
       </c>
@@ -9087,10 +9087,10 @@
       <c r="D145" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="E145" s="114" t="s">
+      <c r="E145" s="81" t="s">
         <v>695</v>
       </c>
-      <c r="F145" s="114"/>
+      <c r="F145" s="81"/>
       <c r="G145" s="46" t="s">
         <v>705</v>
       </c>
@@ -9117,10 +9117,10 @@
       <c r="D146" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="E146" s="114" t="s">
+      <c r="E146" s="81" t="s">
         <v>695</v>
       </c>
-      <c r="F146" s="114"/>
+      <c r="F146" s="81"/>
       <c r="G146" s="46" t="s">
         <v>706</v>
       </c>
@@ -9147,10 +9147,10 @@
       <c r="D147" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="E147" s="114" t="s">
+      <c r="E147" s="81" t="s">
         <v>696</v>
       </c>
-      <c r="F147" s="114"/>
+      <c r="F147" s="81"/>
       <c r="G147" s="46" t="s">
         <v>707</v>
       </c>
@@ -9177,10 +9177,10 @@
       <c r="D148" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="E148" s="114" t="s">
+      <c r="E148" s="81" t="s">
         <v>697</v>
       </c>
-      <c r="F148" s="114"/>
+      <c r="F148" s="81"/>
       <c r="G148" s="46" t="s">
         <v>708</v>
       </c>
@@ -9207,10 +9207,10 @@
       <c r="D149" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="E149" s="114" t="s">
+      <c r="E149" s="81" t="s">
         <v>698</v>
       </c>
-      <c r="F149" s="114"/>
+      <c r="F149" s="81"/>
       <c r="G149" s="46" t="s">
         <v>709</v>
       </c>
@@ -9237,10 +9237,10 @@
       <c r="D150" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="E150" s="114" t="s">
+      <c r="E150" s="81" t="s">
         <v>695</v>
       </c>
-      <c r="F150" s="114"/>
+      <c r="F150" s="81"/>
       <c r="G150" s="46" t="s">
         <v>710</v>
       </c>
@@ -9267,10 +9267,10 @@
       <c r="D151" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="E151" s="114" t="s">
+      <c r="E151" s="81" t="s">
         <v>696</v>
       </c>
-      <c r="F151" s="114"/>
+      <c r="F151" s="81"/>
       <c r="G151" s="46" t="s">
         <v>711</v>
       </c>
@@ -9297,10 +9297,10 @@
       <c r="D152" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="E152" s="114" t="s">
+      <c r="E152" s="81" t="s">
         <v>697</v>
       </c>
-      <c r="F152" s="114"/>
+      <c r="F152" s="81"/>
       <c r="G152" s="46" t="s">
         <v>712</v>
       </c>
@@ -9327,10 +9327,10 @@
       <c r="D153" s="42" t="s">
         <v>797</v>
       </c>
-      <c r="E153" s="114" t="s">
+      <c r="E153" s="81" t="s">
         <v>695</v>
       </c>
-      <c r="F153" s="114"/>
+      <c r="F153" s="81"/>
       <c r="G153" s="46" t="s">
         <v>713</v>
       </c>
@@ -9357,10 +9357,10 @@
       <c r="D154" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="E154" s="114" t="s">
+      <c r="E154" s="81" t="s">
         <v>696</v>
       </c>
-      <c r="F154" s="114"/>
+      <c r="F154" s="81"/>
       <c r="G154" s="46" t="s">
         <v>714</v>
       </c>
@@ -9387,10 +9387,10 @@
       <c r="D155" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="E155" s="114" t="s">
+      <c r="E155" s="81" t="s">
         <v>697</v>
       </c>
-      <c r="F155" s="114"/>
+      <c r="F155" s="81"/>
       <c r="G155" s="46" t="s">
         <v>715</v>
       </c>
@@ -9417,10 +9417,10 @@
       <c r="D156" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="E156" s="114" t="s">
+      <c r="E156" s="81" t="s">
         <v>695</v>
       </c>
-      <c r="F156" s="114"/>
+      <c r="F156" s="81"/>
       <c r="G156" s="46" t="s">
         <v>716</v>
       </c>
@@ -9447,10 +9447,10 @@
       <c r="D157" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="E157" s="114" t="s">
+      <c r="E157" s="81" t="s">
         <v>696</v>
       </c>
-      <c r="F157" s="114"/>
+      <c r="F157" s="81"/>
       <c r="G157" s="46" t="s">
         <v>717</v>
       </c>
@@ -9477,10 +9477,10 @@
       <c r="D158" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="E158" s="114" t="s">
+      <c r="E158" s="81" t="s">
         <v>697</v>
       </c>
-      <c r="F158" s="114"/>
+      <c r="F158" s="81"/>
       <c r="G158" s="46" t="s">
         <v>718</v>
       </c>
@@ -9507,10 +9507,10 @@
       <c r="D159" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="E159" s="114" t="s">
+      <c r="E159" s="81" t="s">
         <v>695</v>
       </c>
-      <c r="F159" s="114"/>
+      <c r="F159" s="81"/>
       <c r="G159" s="46" t="s">
         <v>719</v>
       </c>
@@ -9537,10 +9537,10 @@
       <c r="D160" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="E160" s="114" t="s">
+      <c r="E160" s="81" t="s">
         <v>696</v>
       </c>
-      <c r="F160" s="114"/>
+      <c r="F160" s="81"/>
       <c r="G160" s="46" t="s">
         <v>720</v>
       </c>
@@ -9567,10 +9567,10 @@
       <c r="D161" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="E161" s="114" t="s">
+      <c r="E161" s="81" t="s">
         <v>697</v>
       </c>
-      <c r="F161" s="114"/>
+      <c r="F161" s="81"/>
       <c r="G161" s="46" t="s">
         <v>721</v>
       </c>
@@ -9597,10 +9597,10 @@
       <c r="D162" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="E162" s="114" t="s">
+      <c r="E162" s="81" t="s">
         <v>695</v>
       </c>
-      <c r="F162" s="114"/>
+      <c r="F162" s="81"/>
       <c r="G162" s="46" t="s">
         <v>722</v>
       </c>
@@ -9627,10 +9627,10 @@
       <c r="D163" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="E163" s="114" t="s">
+      <c r="E163" s="81" t="s">
         <v>696</v>
       </c>
-      <c r="F163" s="114"/>
+      <c r="F163" s="81"/>
       <c r="G163" s="46" t="s">
         <v>723</v>
       </c>
@@ -9657,10 +9657,10 @@
       <c r="D164" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="E164" s="114" t="s">
+      <c r="E164" s="81" t="s">
         <v>697</v>
       </c>
-      <c r="F164" s="114"/>
+      <c r="F164" s="81"/>
       <c r="G164" s="46" t="s">
         <v>724</v>
       </c>
@@ -9687,10 +9687,10 @@
       <c r="D165" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="E165" s="114" t="s">
+      <c r="E165" s="81" t="s">
         <v>699</v>
       </c>
-      <c r="F165" s="114"/>
+      <c r="F165" s="81"/>
       <c r="G165" s="46" t="s">
         <v>725</v>
       </c>
@@ -9717,10 +9717,10 @@
       <c r="D166" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="E166" s="114" t="s">
+      <c r="E166" s="81" t="s">
         <v>700</v>
       </c>
-      <c r="F166" s="114"/>
+      <c r="F166" s="81"/>
       <c r="G166" s="46" t="s">
         <v>726</v>
       </c>
@@ -9747,10 +9747,10 @@
       <c r="D167" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="E167" s="114" t="s">
+      <c r="E167" s="81" t="s">
         <v>701</v>
       </c>
-      <c r="F167" s="114"/>
+      <c r="F167" s="81"/>
       <c r="G167" s="46" t="s">
         <v>727</v>
       </c>
@@ -9789,10 +9789,10 @@
       <c r="D169" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="E169" s="114" t="s">
+      <c r="E169" s="81" t="s">
         <v>812</v>
       </c>
-      <c r="F169" s="114"/>
+      <c r="F169" s="81"/>
       <c r="G169" s="56" t="s">
         <v>820</v>
       </c>
@@ -9819,10 +9819,10 @@
       <c r="D170" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="E170" s="114" t="s">
+      <c r="E170" s="81" t="s">
         <v>813</v>
       </c>
-      <c r="F170" s="114"/>
+      <c r="F170" s="81"/>
       <c r="G170" s="56" t="s">
         <v>820</v>
       </c>
@@ -9849,10 +9849,10 @@
       <c r="D171" s="5" t="s">
         <v>886</v>
       </c>
-      <c r="E171" s="114" t="s">
+      <c r="E171" s="81" t="s">
         <v>814</v>
       </c>
-      <c r="F171" s="114"/>
+      <c r="F171" s="81"/>
       <c r="G171" s="56" t="s">
         <v>820</v>
       </c>
@@ -9879,10 +9879,10 @@
       <c r="D172" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="E172" s="114" t="s">
+      <c r="E172" s="81" t="s">
         <v>815</v>
       </c>
-      <c r="F172" s="114"/>
+      <c r="F172" s="81"/>
       <c r="G172" s="56" t="s">
         <v>820</v>
       </c>
@@ -9909,10 +9909,10 @@
       <c r="D173" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="E173" s="114" t="s">
+      <c r="E173" s="81" t="s">
         <v>812</v>
       </c>
-      <c r="F173" s="114"/>
+      <c r="F173" s="81"/>
       <c r="G173" s="56" t="s">
         <v>821</v>
       </c>
@@ -9939,10 +9939,10 @@
       <c r="D174" s="5" t="s">
         <v>889</v>
       </c>
-      <c r="E174" s="114" t="s">
+      <c r="E174" s="81" t="s">
         <v>813</v>
       </c>
-      <c r="F174" s="114"/>
+      <c r="F174" s="81"/>
       <c r="G174" s="56" t="s">
         <v>821</v>
       </c>
@@ -9969,10 +9969,10 @@
       <c r="D175" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="E175" s="114" t="s">
+      <c r="E175" s="81" t="s">
         <v>814</v>
       </c>
-      <c r="F175" s="114"/>
+      <c r="F175" s="81"/>
       <c r="G175" s="56" t="s">
         <v>821</v>
       </c>
@@ -9999,10 +9999,10 @@
       <c r="D176" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="E176" s="114" t="s">
+      <c r="E176" s="81" t="s">
         <v>815</v>
       </c>
-      <c r="F176" s="114"/>
+      <c r="F176" s="81"/>
       <c r="G176" s="56" t="s">
         <v>821</v>
       </c>
@@ -10029,10 +10029,10 @@
       <c r="D177" s="5" t="s">
         <v>892</v>
       </c>
-      <c r="E177" s="114" t="s">
+      <c r="E177" s="81" t="s">
         <v>812</v>
       </c>
-      <c r="F177" s="114"/>
+      <c r="F177" s="81"/>
       <c r="G177" s="56" t="s">
         <v>822</v>
       </c>
@@ -10059,10 +10059,10 @@
       <c r="D178" s="5" t="s">
         <v>893</v>
       </c>
-      <c r="E178" s="114" t="s">
+      <c r="E178" s="81" t="s">
         <v>813</v>
       </c>
-      <c r="F178" s="114"/>
+      <c r="F178" s="81"/>
       <c r="G178" s="56" t="s">
         <v>822</v>
       </c>
@@ -10089,10 +10089,10 @@
       <c r="D179" s="5" t="s">
         <v>894</v>
       </c>
-      <c r="E179" s="114" t="s">
+      <c r="E179" s="81" t="s">
         <v>814</v>
       </c>
-      <c r="F179" s="114"/>
+      <c r="F179" s="81"/>
       <c r="G179" s="56" t="s">
         <v>822</v>
       </c>
@@ -10119,10 +10119,10 @@
       <c r="D180" s="5" t="s">
         <v>895</v>
       </c>
-      <c r="E180" s="114" t="s">
+      <c r="E180" s="81" t="s">
         <v>815</v>
       </c>
-      <c r="F180" s="114"/>
+      <c r="F180" s="81"/>
       <c r="G180" s="56" t="s">
         <v>822</v>
       </c>
@@ -10149,10 +10149,10 @@
       <c r="D181" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="E181" s="114" t="s">
+      <c r="E181" s="81" t="s">
         <v>812</v>
       </c>
-      <c r="F181" s="114"/>
+      <c r="F181" s="81"/>
       <c r="G181" s="56" t="s">
         <v>823</v>
       </c>
@@ -10179,10 +10179,10 @@
       <c r="D182" s="5" t="s">
         <v>897</v>
       </c>
-      <c r="E182" s="114" t="s">
+      <c r="E182" s="81" t="s">
         <v>813</v>
       </c>
-      <c r="F182" s="114"/>
+      <c r="F182" s="81"/>
       <c r="G182" s="56" t="s">
         <v>823</v>
       </c>
@@ -10209,10 +10209,10 @@
       <c r="D183" s="5" t="s">
         <v>898</v>
       </c>
-      <c r="E183" s="114" t="s">
+      <c r="E183" s="81" t="s">
         <v>814</v>
       </c>
-      <c r="F183" s="114"/>
+      <c r="F183" s="81"/>
       <c r="G183" s="56" t="s">
         <v>823</v>
       </c>
@@ -10239,10 +10239,10 @@
       <c r="D184" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="E184" s="114" t="s">
+      <c r="E184" s="81" t="s">
         <v>815</v>
       </c>
-      <c r="F184" s="114"/>
+      <c r="F184" s="81"/>
       <c r="G184" s="56" t="s">
         <v>823</v>
       </c>
@@ -10269,10 +10269,10 @@
       <c r="D185" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="E185" s="114" t="s">
+      <c r="E185" s="81" t="s">
         <v>812</v>
       </c>
-      <c r="F185" s="114"/>
+      <c r="F185" s="81"/>
       <c r="G185" s="56" t="s">
         <v>824</v>
       </c>
@@ -10299,10 +10299,10 @@
       <c r="D186" s="5" t="s">
         <v>901</v>
       </c>
-      <c r="E186" s="114" t="s">
+      <c r="E186" s="81" t="s">
         <v>813</v>
       </c>
-      <c r="F186" s="114"/>
+      <c r="F186" s="81"/>
       <c r="G186" s="56" t="s">
         <v>824</v>
       </c>
@@ -10329,10 +10329,10 @@
       <c r="D187" s="5" t="s">
         <v>902</v>
       </c>
-      <c r="E187" s="114" t="s">
+      <c r="E187" s="81" t="s">
         <v>814</v>
       </c>
-      <c r="F187" s="114"/>
+      <c r="F187" s="81"/>
       <c r="G187" s="56" t="s">
         <v>824</v>
       </c>
@@ -10359,10 +10359,10 @@
       <c r="D188" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="E188" s="114" t="s">
+      <c r="E188" s="81" t="s">
         <v>815</v>
       </c>
-      <c r="F188" s="114"/>
+      <c r="F188" s="81"/>
       <c r="G188" s="56" t="s">
         <v>824</v>
       </c>
@@ -10389,10 +10389,10 @@
       <c r="D189" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="E189" s="114" t="s">
+      <c r="E189" s="81" t="s">
         <v>812</v>
       </c>
-      <c r="F189" s="114"/>
+      <c r="F189" s="81"/>
       <c r="G189" s="56" t="s">
         <v>825</v>
       </c>
@@ -10419,10 +10419,10 @@
       <c r="D190" s="5" t="s">
         <v>905</v>
       </c>
-      <c r="E190" s="114" t="s">
+      <c r="E190" s="81" t="s">
         <v>813</v>
       </c>
-      <c r="F190" s="114"/>
+      <c r="F190" s="81"/>
       <c r="G190" s="56" t="s">
         <v>825</v>
       </c>
@@ -10449,10 +10449,10 @@
       <c r="D191" s="5" t="s">
         <v>906</v>
       </c>
-      <c r="E191" s="114" t="s">
+      <c r="E191" s="81" t="s">
         <v>814</v>
       </c>
-      <c r="F191" s="114"/>
+      <c r="F191" s="81"/>
       <c r="G191" s="56" t="s">
         <v>825</v>
       </c>
@@ -10479,10 +10479,10 @@
       <c r="D192" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="E192" s="114" t="s">
+      <c r="E192" s="81" t="s">
         <v>815</v>
       </c>
-      <c r="F192" s="114"/>
+      <c r="F192" s="81"/>
       <c r="G192" s="56" t="s">
         <v>825</v>
       </c>
@@ -10509,10 +10509,10 @@
       <c r="D193" s="5" t="s">
         <v>908</v>
       </c>
-      <c r="E193" s="114" t="s">
+      <c r="E193" s="81" t="s">
         <v>816</v>
       </c>
-      <c r="F193" s="114"/>
+      <c r="F193" s="81"/>
       <c r="G193" s="56" t="s">
         <v>826</v>
       </c>
@@ -10539,10 +10539,10 @@
       <c r="D194" s="5" t="s">
         <v>909</v>
       </c>
-      <c r="E194" s="114" t="s">
+      <c r="E194" s="81" t="s">
         <v>817</v>
       </c>
-      <c r="F194" s="114"/>
+      <c r="F194" s="81"/>
       <c r="G194" s="56" t="s">
         <v>827</v>
       </c>
@@ -10569,10 +10569,10 @@
       <c r="D195" s="5" t="s">
         <v>910</v>
       </c>
-      <c r="E195" s="114" t="s">
+      <c r="E195" s="81" t="s">
         <v>818</v>
       </c>
-      <c r="F195" s="114"/>
+      <c r="F195" s="81"/>
       <c r="G195" s="56" t="s">
         <v>828</v>
       </c>
@@ -10599,10 +10599,10 @@
       <c r="D196" s="5" t="s">
         <v>911</v>
       </c>
-      <c r="E196" s="114" t="s">
+      <c r="E196" s="81" t="s">
         <v>819</v>
       </c>
-      <c r="F196" s="114"/>
+      <c r="F196" s="81"/>
       <c r="G196" s="56" t="s">
         <v>829</v>
       </c>
@@ -10629,10 +10629,10 @@
       <c r="D197" s="5" t="s">
         <v>912</v>
       </c>
-      <c r="E197" s="114" t="s">
+      <c r="E197" s="81" t="s">
         <v>819</v>
       </c>
-      <c r="F197" s="114"/>
+      <c r="F197" s="81"/>
       <c r="G197" s="56" t="s">
         <v>829</v>
       </c>
@@ -10659,10 +10659,10 @@
       <c r="D198" s="5" t="s">
         <v>913</v>
       </c>
-      <c r="E198" s="114" t="s">
+      <c r="E198" s="81" t="s">
         <v>819</v>
       </c>
-      <c r="F198" s="114"/>
+      <c r="F198" s="81"/>
       <c r="G198" s="56" t="s">
         <v>829</v>
       </c>
@@ -10689,10 +10689,10 @@
       <c r="D199" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="E199" s="114" t="s">
+      <c r="E199" s="81" t="s">
         <v>819</v>
       </c>
-      <c r="F199" s="114"/>
+      <c r="F199" s="81"/>
       <c r="G199" s="56" t="s">
         <v>829</v>
       </c>
@@ -10719,10 +10719,10 @@
       <c r="D200" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="E200" s="114" t="s">
+      <c r="E200" s="81" t="s">
         <v>819</v>
       </c>
-      <c r="F200" s="114"/>
+      <c r="F200" s="81"/>
       <c r="G200" s="56" t="s">
         <v>829</v>
       </c>
@@ -10749,10 +10749,10 @@
       <c r="D201" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="E201" s="114" t="s">
+      <c r="E201" s="81" t="s">
         <v>819</v>
       </c>
-      <c r="F201" s="114"/>
+      <c r="F201" s="81"/>
       <c r="G201" s="56" t="s">
         <v>829</v>
       </c>
@@ -10779,10 +10779,10 @@
       <c r="D202" s="5" t="s">
         <v>916</v>
       </c>
-      <c r="E202" s="114" t="s">
+      <c r="E202" s="81" t="s">
         <v>819</v>
       </c>
-      <c r="F202" s="114"/>
+      <c r="F202" s="81"/>
       <c r="G202" s="56" t="s">
         <v>829</v>
       </c>
@@ -10821,10 +10821,10 @@
       <c r="D204" s="5" t="s">
         <v>1012</v>
       </c>
-      <c r="E204" s="96" t="s">
+      <c r="E204" s="111" t="s">
         <v>917</v>
       </c>
-      <c r="F204" s="96"/>
+      <c r="F204" s="111"/>
       <c r="G204" s="61" t="s">
         <v>931</v>
       </c>
@@ -10851,10 +10851,10 @@
       <c r="D205" s="5" t="s">
         <v>1013</v>
       </c>
-      <c r="E205" s="80" t="s">
+      <c r="E205" s="100" t="s">
         <v>918</v>
       </c>
-      <c r="F205" s="80"/>
+      <c r="F205" s="100"/>
       <c r="G205" s="62" t="s">
         <v>937</v>
       </c>
@@ -10881,10 +10881,10 @@
       <c r="D206" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="E206" s="80" t="s">
+      <c r="E206" s="100" t="s">
         <v>919</v>
       </c>
-      <c r="F206" s="80"/>
+      <c r="F206" s="100"/>
       <c r="G206" s="62" t="s">
         <v>943</v>
       </c>
@@ -10911,10 +10911,10 @@
       <c r="D207" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="E207" s="80" t="s">
+      <c r="E207" s="100" t="s">
         <v>920</v>
       </c>
-      <c r="F207" s="80"/>
+      <c r="F207" s="100"/>
       <c r="G207" s="62" t="s">
         <v>947</v>
       </c>
@@ -10941,10 +10941,10 @@
       <c r="D208" s="5" t="s">
         <v>1016</v>
       </c>
-      <c r="E208" s="80" t="s">
+      <c r="E208" s="100" t="s">
         <v>921</v>
       </c>
-      <c r="F208" s="80"/>
+      <c r="F208" s="100"/>
       <c r="G208" s="62" t="s">
         <v>952</v>
       </c>
@@ -10971,10 +10971,10 @@
       <c r="D209" s="5" t="s">
         <v>1017</v>
       </c>
-      <c r="E209" s="80" t="s">
+      <c r="E209" s="100" t="s">
         <v>922</v>
       </c>
-      <c r="F209" s="80"/>
+      <c r="F209" s="100"/>
       <c r="G209" s="62" t="s">
         <v>957</v>
       </c>
@@ -11001,10 +11001,10 @@
       <c r="D210" s="5" t="s">
         <v>1018</v>
       </c>
-      <c r="E210" s="80" t="s">
+      <c r="E210" s="100" t="s">
         <v>923</v>
       </c>
-      <c r="F210" s="80"/>
+      <c r="F210" s="100"/>
       <c r="G210" s="62" t="s">
         <v>962</v>
       </c>
@@ -11031,10 +11031,10 @@
       <c r="D211" s="5" t="s">
         <v>1019</v>
       </c>
-      <c r="E211" s="80" t="s">
+      <c r="E211" s="100" t="s">
         <v>923</v>
       </c>
-      <c r="F211" s="80"/>
+      <c r="F211" s="100"/>
       <c r="G211" s="62" t="s">
         <v>967</v>
       </c>
@@ -11061,10 +11061,10 @@
       <c r="D212" s="5" t="s">
         <v>1020</v>
       </c>
-      <c r="E212" s="80" t="s">
+      <c r="E212" s="100" t="s">
         <v>924</v>
       </c>
-      <c r="F212" s="80"/>
+      <c r="F212" s="100"/>
       <c r="G212" s="62" t="s">
         <v>972</v>
       </c>
@@ -11091,10 +11091,10 @@
       <c r="D213" s="5" t="s">
         <v>1021</v>
       </c>
-      <c r="E213" s="87" t="s">
+      <c r="E213" s="114" t="s">
         <v>925</v>
       </c>
-      <c r="F213" s="87"/>
+      <c r="F213" s="114"/>
       <c r="G213" s="62" t="s">
         <v>976</v>
       </c>
@@ -11121,10 +11121,10 @@
       <c r="D214" s="5" t="s">
         <v>1022</v>
       </c>
-      <c r="E214" s="80" t="s">
+      <c r="E214" s="100" t="s">
         <v>926</v>
       </c>
-      <c r="F214" s="80"/>
+      <c r="F214" s="100"/>
       <c r="G214" s="62" t="s">
         <v>982</v>
       </c>
@@ -11151,10 +11151,10 @@
       <c r="D215" s="5" t="s">
         <v>1023</v>
       </c>
-      <c r="E215" s="80" t="s">
+      <c r="E215" s="100" t="s">
         <v>927</v>
       </c>
-      <c r="F215" s="80"/>
+      <c r="F215" s="100"/>
       <c r="G215" s="62" t="s">
         <v>988</v>
       </c>
@@ -11181,10 +11181,10 @@
       <c r="D216" s="5" t="s">
         <v>1024</v>
       </c>
-      <c r="E216" s="87" t="s">
+      <c r="E216" s="114" t="s">
         <v>928</v>
       </c>
-      <c r="F216" s="87"/>
+      <c r="F216" s="114"/>
       <c r="G216" s="62" t="s">
         <v>994</v>
       </c>
@@ -11211,10 +11211,10 @@
       <c r="D217" s="5" t="s">
         <v>1025</v>
       </c>
-      <c r="E217" s="80" t="s">
+      <c r="E217" s="100" t="s">
         <v>929</v>
       </c>
-      <c r="F217" s="80"/>
+      <c r="F217" s="100"/>
       <c r="G217" s="62" t="s">
         <v>1000</v>
       </c>
@@ -11241,10 +11241,10 @@
       <c r="D218" s="5" t="s">
         <v>1026</v>
       </c>
-      <c r="E218" s="80" t="s">
+      <c r="E218" s="100" t="s">
         <v>930</v>
       </c>
-      <c r="F218" s="80"/>
+      <c r="F218" s="100"/>
       <c r="G218" s="62" t="s">
         <v>1006</v>
       </c>
@@ -11269,6 +11269,136 @@
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="E217:F217"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="E213:F213"/>
+    <mergeCell ref="E214:F214"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="E209:F209"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="F15:F60"/>
+    <mergeCell ref="E15:E60"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="E205:F205"/>
+    <mergeCell ref="E206:F206"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E118:F134"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="E172:F172"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="E198:F198"/>
     <mergeCell ref="E199:F199"/>
@@ -11293,136 +11423,6 @@
     <mergeCell ref="E178:F178"/>
     <mergeCell ref="E179:F179"/>
     <mergeCell ref="E180:F180"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="E144:F144"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E118:F134"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="E208:F208"/>
-    <mergeCell ref="E209:F209"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="F15:F60"/>
-    <mergeCell ref="E15:E60"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="E205:F205"/>
-    <mergeCell ref="E206:F206"/>
-    <mergeCell ref="E207:F207"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="E217:F217"/>
-    <mergeCell ref="E218:F218"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="E213:F213"/>
-    <mergeCell ref="E214:F214"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E72:F72"/>
   </mergeCells>
   <conditionalFormatting sqref="M105:M116">
     <cfRule type="colorScale" priority="2">
